--- a/src/main/resources/static/template.xlsx
+++ b/src/main/resources/static/template.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdeharo\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D317B4D-CBA5-4C57-99F2-D9096EEBCF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{1969837B-0E67-4112-90B3-06A981CD1A3D}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FACTURA" sheetId="1" r:id="rId1"/>
     <sheet name="ALBARAN" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ALBARAN!$B$2:$D$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FACTURA!$B$2:$F$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ALBARAN!$B$2:$D$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FACTURA!$B$2:$F$41</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Alberto de Haro Almarcha</t>
   </si>
@@ -92,9 +86,6 @@
   </si>
   <si>
     <t>Vencimiento</t>
-  </si>
-  <si>
-    <t>Banco</t>
   </si>
   <si>
     <t>IMPORTE</t>
@@ -118,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,7 +136,7 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -153,8 +144,8 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="1"/>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -344,8 +335,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -358,6 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -419,7 +410,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -471,7 +462,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -665,29 +656,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75029B1-9227-45B9-8468-012077607950}">
-  <dimension ref="B1:F46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="35.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="2:6" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="B2" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1"/>
@@ -696,7 +687,7 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="2:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3"/>
@@ -704,16 +695,16 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
@@ -722,7 +713,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
         <v>3</v>
       </c>
@@ -731,8 +722,8 @@
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="20" t="s">
+    <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="5"/>
@@ -740,274 +731,258 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="16"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="16"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="17" t="s">
+    <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="15" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="7" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F13" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E39" s="13" t="s">
+    <row r="35" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="12"/>
-    </row>
-    <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E40" s="7" t="s">
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E41" s="7" t="s">
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="23"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="25"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="25"/>
-    </row>
-    <row r="46" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="28"/>
+      <c r="F38" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{3DC038CE-8FD8-4A70-91B7-510EAE667097}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1015,22 +990,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2C9AB1-3F68-4B42-B7E8-BD0C76A87C2C}">
-  <dimension ref="B1:F47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="60.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="60.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="18" t="s">
+    <row r="2" spans="2:6" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="B2" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1"/>
@@ -1039,7 +1014,7 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="2:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3"/>
@@ -1047,16 +1022,16 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
@@ -1065,7 +1040,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
         <v>3</v>
       </c>
@@ -1074,8 +1049,8 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="20" t="s">
+    <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="5"/>
@@ -1083,278 +1058,266 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="31"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="15" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="31"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
+    <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="3"/>
+    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="29"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="3"/>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E37" s="29"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="3"/>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E38" s="29"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E40" s="30"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E41" s="30"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="30"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="30"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="30"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="30"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B40" s="29"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B41" s="29"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B42" s="29"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B43" s="29"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{71317A59-4171-45E3-A36F-B2BFE054DB76}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/src/main/resources/static/template.xlsx
+++ b/src/main/resources/static/template.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="FACTURA" sheetId="1" r:id="rId1"/>
     <sheet name="ALBARAN" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ALBARAN!$B$2:$D$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FACTURA!$B$2:$F$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ALBARAN!$B$2:$D$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FACTURA!$B$2:$F$44</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Alberto de Haro Almarcha</t>
   </si>
@@ -94,9 +94,6 @@
     <t>CLIENTE:</t>
   </si>
   <si>
-    <t>Nº Factura</t>
-  </si>
-  <si>
     <t>Cuenta Cte.</t>
   </si>
   <si>
@@ -104,12 +101,21 @@
   </si>
   <si>
     <t>Nº ALBARAN</t>
+  </si>
+  <si>
+    <t>Nº FACTURA</t>
+  </si>
+  <si>
+    <t>Josep Serrano,15 int. 1ª pl.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -316,7 +322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -325,7 +331,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -349,6 +354,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -656,7 +668,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -664,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F38"/>
+  <dimension ref="B1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -678,7 +690,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:6" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1"/>
@@ -687,7 +699,7 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="2:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3"/>
@@ -696,8 +708,8 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
-        <v>21</v>
+      <c r="B4" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -705,8 +717,8 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="15" t="s">
-        <v>2</v>
+      <c r="B5" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -714,7 +726,7 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3"/>
@@ -723,7 +735,7 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="5"/>
@@ -732,7 +744,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1"/>
@@ -741,25 +753,25 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="15" t="s">
-        <v>19</v>
+      <c r="B9" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="16"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="16"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="3"/>
@@ -768,7 +780,7 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="5"/>
@@ -794,191 +806,233 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="2"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="4"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="4"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="4"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="4"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="4"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="4"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="4"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="4"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="4"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="4"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="4"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="4"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="34"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="4"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="34"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="4"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="4"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="34"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="4"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="4"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="4"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="34"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="4"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="34"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="20" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="34"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="34"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+    </row>
+    <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="36"/>
+    </row>
+    <row r="42" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="13" t="s">
+      <c r="C42" s="20"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="23" t="s">
+      <c r="F42" s="35"/>
+    </row>
+    <row r="43" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="7" t="s">
+      <c r="C43" s="8"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="7" t="s">
+      <c r="F43" s="37"/>
+    </row>
+    <row r="44" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="8"/>
+      <c r="F44" s="37"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -991,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F44"/>
+  <dimension ref="B1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1005,7 +1059,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:6" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1"/>
@@ -1014,7 +1068,7 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="2:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3"/>
@@ -1023,8 +1077,8 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
-        <v>21</v>
+      <c r="B4" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -1032,7 +1086,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3"/>
@@ -1041,7 +1095,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3"/>
@@ -1050,7 +1104,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="5"/>
@@ -1059,7 +1113,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1"/>
@@ -1068,25 +1122,25 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="15" t="s">
-        <v>22</v>
+      <c r="B9" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="30"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="30"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="3"/>
@@ -1095,7 +1149,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="5"/>
@@ -1113,207 +1167,242 @@
       <c r="D13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="29"/>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E37" s="29"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="E38" s="29"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B40" s="29"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B41" s="29"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
       <c r="E41" s="28"/>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B42" s="29"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
       <c r="E42" s="28"/>
+      <c r="F42" s="3"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B43" s="29"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
       <c r="E43" s="28"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B45" s="28"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B46" s="28"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B47" s="28"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B48" s="28"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/main/resources/static/template.xlsx
+++ b/src/main/resources/static/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FACTURA" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>plasticdeharo@yahoo.es</t>
   </si>
   <si>
-    <t>FECHA</t>
-  </si>
-  <si>
     <t>FECHA:</t>
   </si>
   <si>
@@ -107,6 +104,9 @@
   </si>
   <si>
     <t>Josep Serrano,15 int. 1ª pl.</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
   </si>
 </sst>
 </file>
@@ -114,7 +114,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -354,13 +354,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -668,7 +668,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42:F44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -691,7 +691,7 @@
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:6" ht="28.5" x14ac:dyDescent="0.65">
       <c r="B2" s="30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -709,7 +709,7 @@
     </row>
     <row r="4" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -718,7 +718,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -745,7 +745,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -754,7 +754,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="15"/>
@@ -763,7 +763,7 @@
     </row>
     <row r="10" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="15"/>
@@ -781,7 +781,7 @@
     </row>
     <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -790,19 +790,19 @@
     </row>
     <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="7" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="F13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -1003,34 +1003,34 @@
     </row>
     <row r="42" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="21"/>
       <c r="E42" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F42" s="35"/>
     </row>
     <row r="43" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B43" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="23"/>
       <c r="E43" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F43" s="37"/>
     </row>
     <row r="44" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B44" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C44" s="25"/>
       <c r="D44" s="26"/>
       <c r="E44" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F44" s="37"/>
     </row>
@@ -1047,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1060,7 +1060,7 @@
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:6" ht="28.5" x14ac:dyDescent="0.65">
       <c r="B2" s="30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="4" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="29"/>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="29"/>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
@@ -1159,13 +1159,13 @@
     </row>
     <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="7" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
